--- a/js/00_Exercices/02_Areas/02_Areas.xlsx
+++ b/js/00_Exercices/02_Areas/02_Areas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MDevoldere\GitHub\DWWM_2005\Javascript\00_Exercices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MDevoldere\GitHub\DWWM_2005\js\00_Exercices\02_Areas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226CDAFC-88A8-4CB3-846C-35EC9BE135C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA0125-748C-46F3-90CF-D535DC962091}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{DCAD485A-C4D9-436F-B537-C069A207AD36}"/>
   </bookViews>
@@ -31,16 +31,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>0,0</t>
+    <t>(0,0)</t>
+  </si>
+  <si>
+    <t>(4,3)</t>
+  </si>
+  <si>
+    <t>(11,5)</t>
+  </si>
+  <si>
+    <t>(5,10)</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>Occupé (hors limites)</t>
+  </si>
+  <si>
+    <t>Occupé</t>
+  </si>
+  <si>
+    <t>Area 10x12</t>
+  </si>
+  <si>
+    <t>(8,1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,8 +72,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,8 +100,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -78,13 +128,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -99,7 +149,37 @@
       <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -111,8 +191,10 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thick">
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -121,7 +203,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="hair">
@@ -139,7 +236,7 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -151,73 +248,181 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,459 +740,507 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A1C515-D255-425E-86B9-A9C22723D32D}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="5.7109375" customWidth="1"/>
+    <col min="2" max="17" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="5">
         <v>6</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="5">
         <v>7</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="5">
         <v>9</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:K15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
